--- a/ParserA/parser/Excel_files/links_products.xlsx
+++ b/ParserA/parser/Excel_files/links_products.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\ParserAbsolut\ParserA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\ParserAbsolut\ParserA\parser\Excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D4D460-3CD2-40C4-9FE9-07195BBEEFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0736CA53-32C5-4A6B-9774-822EEA589B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="668">
   <si>
     <t>product_code</t>
   </si>
@@ -2021,6 +2021,9 @@
   </si>
   <si>
     <t>https://absolut-tds.com/catalog/ledtape/42242/</t>
+  </si>
+  <si>
+    <t>00000008505</t>
   </si>
 </sst>
 </file>
@@ -2065,9 +2068,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -2373,8 +2377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A323" workbookViewId="0">
-      <selection activeCell="E340" sqref="E340"/>
+    <sheetView tabSelected="1" topLeftCell="A314" workbookViewId="0">
+      <selection activeCell="A318" sqref="A318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4919,8 +4923,8 @@
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318">
-        <v>8505</v>
+      <c r="A318" s="2" t="s">
+        <v>667</v>
       </c>
       <c r="B318" t="s">
         <v>634</v>
@@ -5059,5 +5063,6 @@
     <hyperlink ref="B332" r:id="rId1" xr:uid="{4B6AD90A-26B6-4D00-A0F7-94C08DEDD063}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>